--- a/for_ucid/test.xlsx
+++ b/for_ucid/test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D62D05-4055-4BE6-9162-A1C08809F8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0054C8E-9219-7342-98CD-0341EDAEABD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="26960" windowHeight="20030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28260" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>mer_id</t>
   </si>
@@ -38,6 +38,51 @@
     <t>legal_cert_no_mask</t>
   </si>
   <si>
+    <t>广西民族高中</t>
+  </si>
+  <si>
+    <t>企业商户</t>
+  </si>
+  <si>
+    <t>452************055</t>
+  </si>
+  <si>
+    <t>广西民族中等专业学校(广西壮文学校、广西民族高中)</t>
+  </si>
+  <si>
+    <t>广西民族中等专业学校(广</t>
+  </si>
+  <si>
+    <t>广西民族中等专业学校</t>
+  </si>
+  <si>
+    <t>6666000107900539</t>
+  </si>
+  <si>
+    <t>124500004985874503</t>
+  </si>
+  <si>
+    <t>6666000117992921</t>
+  </si>
+  <si>
+    <t>6666000107772596</t>
+  </si>
+  <si>
+    <t>6666000109719085</t>
+  </si>
+  <si>
+    <t>6666000107954024</t>
+  </si>
+  <si>
+    <t>6666000116943647</t>
+  </si>
+  <si>
+    <t>6666000115064688</t>
+  </si>
+  <si>
+    <t>6666000116399739</t>
+  </si>
+  <si>
     <t>data_source</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +95,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SPIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6666000107900123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +115,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>123456789</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +140,62 @@
   </si>
   <si>
     <t>企业商户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1232435435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1232343243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123************456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3435</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,28 +580,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="1"/>
+    <col min="9" max="10" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -516,44 +625,271 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/for_ucid/test.xlsx
+++ b/for_ucid/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0054C8E-9219-7342-98CD-0341EDAEABD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B36726-A38D-B84A-9FE2-F70F40BDEF50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28260" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>mer_id</t>
   </si>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>3435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32423652</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -885,10 +893,121 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
